--- a/xlsx/国家地理学会_intext.xlsx
+++ b/xlsx/国家地理学会_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>国家地理学会</t>
   </si>
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非營利組織</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_国家地理学会</t>
+    <t>非营利组织</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_国家地理学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
+    <t>华盛顿特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>國家地理雜誌</t>
+    <t>国家地理杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>國家地理頻道</t>
+    <t>国家地理频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%A3%AB%E5%B0%BC%E5%85%AC%E5%8F%B8</t>
@@ -83,25 +83,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9C%E8%AA%8C</t>
   </si>
   <si>
-    <t>雜誌</t>
+    <t>杂志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E8%AD%98%E5%88%A5%E6%A8%99%E8%AA%8C</t>
   </si>
   <si>
-    <t>企業識別標誌</t>
+    <t>企业识别标志</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>多媒體</t>
+    <t>多媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>有線電視</t>
+    <t>有线电视</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/National_Geographic_World_Championship</t>
@@ -119,13 +119,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%9C%B0%E7%90%86%E9%A2%91%E9%81%93</t>
   </si>
   <si>
-    <t>国家地理频道</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -143,7 +140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -173,13 +170,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1035,7 +1032,7 @@
         <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1061,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1090,10 +1087,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1119,10 +1116,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1148,10 +1145,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1177,10 +1174,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1206,10 +1203,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1235,10 +1232,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1264,10 +1261,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1293,10 +1290,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1322,10 +1319,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1351,10 +1348,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1380,10 +1377,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1409,10 +1406,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -1438,10 +1435,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
